--- a/BC Data Model Outline.xlsx
+++ b/BC Data Model Outline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\CDISC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627F19C-2EC3-49AE-B473-9A59844B66A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEE974-7C89-4C35-AF12-8237C34D2879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="222">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>SDTM group short name which provides a user friendly and intuitive name for the vlm_group_id</t>
+  </si>
+  <si>
+    <t>Biomedical Cconcept synonym considered as equivalent to BC short name</t>
+  </si>
+  <si>
+    <t>synonym</t>
   </si>
 </sst>
 </file>
@@ -1412,11 +1418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6575D01-805D-0E4D-89C4-3AB8EBDBFBB8}">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1424,21 +1430,21 @@
     <col min="1" max="2" width="13.17578125" style="2" customWidth="1"/>
     <col min="3" max="4" width="15.8203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.17578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.76171875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="23.703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.41015625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.05859375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.41015625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.29296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.5859375" style="2" customWidth="1"/>
-    <col min="13" max="14" width="17" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.17578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.3515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.9375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="17.76171875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="23.703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.41015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.05859375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.41015625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.29296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.5859375" style="2" customWidth="1"/>
+    <col min="14" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.17578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.3515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.9375" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="26" customFormat="1" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" s="26" customFormat="1" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>216</v>
       </c>
@@ -1454,41 +1460,44 @@
       <c r="F1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="52" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" s="52" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A2" s="36" t="s">
         <v>20</v>
       </c>
@@ -1513,8 +1522,8 @@
       <c r="H2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="54" t="s">
-        <v>185</v>
+      <c r="I2" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="J2" s="54" t="s">
         <v>185</v>
@@ -1522,10 +1531,10 @@
       <c r="K2" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="M2" s="51" t="s">
+      <c r="L2" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" s="50" t="s">
         <v>189</v>
       </c>
       <c r="N2" s="51" t="s">
@@ -1540,8 +1549,11 @@
       <c r="Q2" s="51" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="24" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+      <c r="R2" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="24" customFormat="1" ht="86" x14ac:dyDescent="0.5">
       <c r="A3" s="55" t="s">
         <v>3</v>
       </c>
@@ -1560,41 +1572,44 @@
       <c r="F3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="L3" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="N3" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="O3" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="P3" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="R3" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="56" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1628,7 @@
       <c r="F4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -1625,7 +1640,7 @@
       <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="22" t="s">
@@ -1635,24 +1650,27 @@
         <v>8</v>
       </c>
       <c r="N4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="22" t="s">
-        <v>8</v>
-      </c>
       <c r="P4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="25" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="Q4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="25" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
@@ -1666,25 +1684,25 @@
       <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="25" t="s">
+      <c r="L5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="25" t="s">
@@ -1696,11 +1714,14 @@
       <c r="P5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="56" t="s">
         <v>6</v>
       </c>
@@ -1723,37 +1744,40 @@
         <v>11</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A7" s="56" t="s">
         <v>7</v>
       </c>
@@ -1762,18 +1786,19 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1782,168 +1807,178 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="9"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q8" s="9"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-    </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R9" s="9"/>
+    </row>
+    <row r="11" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q11" s="9"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q12" s="9"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q13" s="9"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="M18" s="9"/>
+      <c r="K18" s="14"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="9"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="M19" s="9"/>
+      <c r="K19" s="13"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="9"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="M20" s="8"/>
+      <c r="K20" s="13"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="8"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="9"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="M21" s="9"/>
+      <c r="K21" s="13"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="2"/>
@@ -1951,262 +1986,276 @@
       <c r="E22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="M22" s="9"/>
+      <c r="K22" s="14"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="14"/>
-    </row>
-    <row r="25" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q24" s="9"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="14"/>
-    </row>
-    <row r="26" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="9"/>
-      <c r="M26" s="8"/>
+      <c r="G26" s="9"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="14"/>
-    </row>
-    <row r="27" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="1:17" ht="30.35" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="29" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" ht="30.35" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="M37" s="8"/>
       <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:17" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:18" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="M41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="14"/>
-    </row>
-    <row r="42" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q41" s="9"/>
+      <c r="R41" s="14"/>
+    </row>
+    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="M42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
-      <c r="Q42" s="14"/>
-    </row>
-    <row r="43" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q42" s="9"/>
+      <c r="R42" s="14"/>
+    </row>
+    <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="M43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="14"/>
-    </row>
-    <row r="44" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q43" s="9"/>
+      <c r="R43" s="14"/>
+    </row>
+    <row r="44" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="G44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="1:17" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="R44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="G46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
-      <c r="Q46" s="14"/>
-    </row>
-    <row r="47" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q46" s="9"/>
+      <c r="R46" s="14"/>
+    </row>
+    <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="M47" s="9"/>
+      <c r="G47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
-      <c r="Q47" s="14"/>
-    </row>
-    <row r="48" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q47" s="9"/>
+      <c r="R47" s="14"/>
+    </row>
+    <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="M48" s="9"/>
+      <c r="G48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
-      <c r="Q48" s="14"/>
-    </row>
-    <row r="49" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q48" s="9"/>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="M49" s="9"/>
+      <c r="G49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
-    </row>
-    <row r="50" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R49" s="9"/>
+    </row>
+    <row r="50" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="H50" s="3"/>
+      <c r="G50" s="9"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="M50" s="9"/>
+      <c r="K50" s="3"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="1:17" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="R50" s="9"/>
+    </row>
+    <row r="51" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E51" s="9"/>
-      <c r="K51" s="9"/>
       <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2214,57 +2263,61 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="M52" s="9"/>
+      <c r="H52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
-      <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q52" s="9"/>
+      <c r="R52" s="14"/>
+    </row>
+    <row r="53" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="M53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
-      <c r="Q53" s="14"/>
-    </row>
-    <row r="54" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q53" s="9"/>
+      <c r="R53" s="14"/>
+    </row>
+    <row r="54" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="M54" s="9"/>
+      <c r="G54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
-      <c r="Q54" s="14"/>
-    </row>
-    <row r="55" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q54" s="9"/>
+      <c r="R54" s="14"/>
+    </row>
+    <row r="55" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="M55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
-    </row>
-    <row r="56" spans="1:17" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="R55" s="9"/>
+    </row>
+    <row r="56" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E56" s="9"/>
-      <c r="K56" s="9"/>
       <c r="L56" s="9"/>
-    </row>
-    <row r="57" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2272,76 +2325,81 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="M57" s="9"/>
+      <c r="H57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="14"/>
-    </row>
-    <row r="58" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q57" s="9"/>
+      <c r="R57" s="14"/>
+    </row>
+    <row r="58" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="M58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="14"/>
-    </row>
-    <row r="59" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q58" s="9"/>
+      <c r="R58" s="14"/>
+    </row>
+    <row r="59" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="M59" s="8"/>
+      <c r="G59" s="9"/>
       <c r="N59" s="8"/>
-      <c r="O59" s="9"/>
+      <c r="O59" s="8"/>
       <c r="P59" s="9"/>
-      <c r="Q59" s="14"/>
-    </row>
-    <row r="60" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="14"/>
+    </row>
+    <row r="60" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="G60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
-    </row>
-    <row r="61" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R60" s="9"/>
+    </row>
+    <row r="61" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="9"/>
-      <c r="H61" s="14"/>
+      <c r="G61" s="9"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
-      <c r="M61" s="9"/>
+      <c r="K61" s="14"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
-    </row>
-    <row r="62" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R61" s="9"/>
+    </row>
+    <row r="62" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -2351,80 +2409,85 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
-    </row>
-    <row r="63" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="R62" s="9"/>
+    </row>
+    <row r="63" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="M63" s="9"/>
+      <c r="K63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
-      <c r="Q63" s="14"/>
-    </row>
-    <row r="64" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q63" s="9"/>
+      <c r="R63" s="14"/>
+    </row>
+    <row r="64" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="M64" s="9"/>
+      <c r="K64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
-      <c r="Q64" s="14"/>
-    </row>
-    <row r="65" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q64" s="9"/>
+      <c r="R64" s="14"/>
+    </row>
+    <row r="65" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="M65" s="9"/>
+      <c r="K65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
-      <c r="Q65" s="14"/>
-    </row>
-    <row r="66" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q65" s="9"/>
+      <c r="R65" s="14"/>
+    </row>
+    <row r="66" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="M66" s="9"/>
+      <c r="K66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
-    </row>
-    <row r="67" spans="1:17" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="K67" s="9"/>
+      <c r="R66" s="9"/>
+    </row>
+    <row r="67" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2432,50 +2495,54 @@
       <c r="E68" s="2"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="M68" s="9"/>
+      <c r="H68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
-      <c r="Q68" s="14"/>
-    </row>
-    <row r="69" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q68" s="9"/>
+      <c r="R68" s="14"/>
+    </row>
+    <row r="69" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="9"/>
-      <c r="M69" s="9"/>
+      <c r="G69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
-      <c r="Q69" s="14"/>
-    </row>
-    <row r="70" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q69" s="9"/>
+      <c r="R69" s="14"/>
+    </row>
+    <row r="70" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="9"/>
-      <c r="M70" s="9"/>
+      <c r="G70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
-      <c r="Q70" s="14"/>
-    </row>
-    <row r="71" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q70" s="9"/>
+      <c r="R70" s="14"/>
+    </row>
+    <row r="71" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="9"/>
-      <c r="M71" s="9"/>
+      <c r="G71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5242,13 +5309,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6134068-77BC-42E3-A002-6092815351E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41345B41-F9FA-42E9-9D96-6318E09ACCF3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1646D197-0B3D-4040-A83A-C882A64C5925}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43EE0C5-BD78-433B-8DE2-2355875A3614}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DD0B0CB-5ECA-4095-AF63-C9E76ABD923B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F746F7C8-B27A-4830-BB80-7C6BB555E569}"/>
 </file>
--- a/BC Data Model Outline.xlsx
+++ b/BC Data Model Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\CDISC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEE974-7C89-4C35-AF12-8237C34D2879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB5F9A5-B9F4-42AA-A825-2150AEBBFEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
@@ -19,27 +19,17 @@
     <sheet name="Entity Cardinality" sheetId="13" r:id="rId4"/>
     <sheet name="Keys" sheetId="14" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="203">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -80,18 +70,6 @@
     <t>many</t>
   </si>
   <si>
-    <t>Biomedical Concept short name</t>
-  </si>
-  <si>
-    <t>Biomedical Concept identifier</t>
-  </si>
-  <si>
-    <t>Parent Biomedical Concept identifier</t>
-  </si>
-  <si>
-    <t>Biomedical Concept definition</t>
-  </si>
-  <si>
     <t>BC_ID</t>
   </si>
   <si>
@@ -104,18 +82,12 @@
     <t>entity grouping</t>
   </si>
   <si>
-    <t>Biomedical Concept result scale</t>
-  </si>
-  <si>
     <t>Attribute_ID</t>
   </si>
   <si>
     <t>FK_BC_ID</t>
   </si>
   <si>
-    <t>Biomedical Concept  identifier</t>
-  </si>
-  <si>
     <t>S/S Header</t>
   </si>
   <si>
@@ -144,18 +116,6 @@
   </si>
   <si>
     <t>SDTM Group</t>
-  </si>
-  <si>
-    <t>Biomedical Concept attribute idenfifier foreign key</t>
-  </si>
-  <si>
-    <t>Variable role</t>
-  </si>
-  <si>
-    <t>Variable relationship descriptive linking phrase</t>
-  </si>
-  <si>
-    <t>Short variable relatio ship linking phrase for programming purposes</t>
   </si>
   <si>
     <t>Variable data type</t>
@@ -189,9 +149,6 @@
     <t>Object in a variable relationship</t>
   </si>
   <si>
-    <t>Subject in a variable relationship</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -210,9 +167,6 @@
     <t>Subset codelist label</t>
   </si>
   <si>
-    <t>Subset codelist parent codelist</t>
-  </si>
-  <si>
     <t>Submision value of term in subset codelist</t>
   </si>
   <si>
@@ -222,64 +176,22 @@
     <t>FK_Subset_Short_Name</t>
   </si>
   <si>
-    <t>Codelist C-code</t>
-  </si>
-  <si>
-    <t>Assigned codelist term (C-code)</t>
-  </si>
-  <si>
-    <t>Assigned codelist term submission value</t>
-  </si>
-  <si>
-    <t>Codelist submission value</t>
-  </si>
-  <si>
     <t>Cardinality (within scope of a  BC)</t>
   </si>
   <si>
     <t>CDASH Group</t>
   </si>
   <si>
-    <t>CDASH value level group</t>
-  </si>
-  <si>
     <t>FK_Codelist</t>
   </si>
   <si>
-    <t>Value set of codelist term submission values</t>
-  </si>
-  <si>
     <t>C-code term in subset codelist</t>
   </si>
   <si>
-    <t>CDASH variable name</t>
-  </si>
-  <si>
-    <t>SDTM variable name</t>
-  </si>
-  <si>
     <t>CDASH variable question text</t>
   </si>
   <si>
     <t>CDASH variable  prompt</t>
-  </si>
-  <si>
-    <t>CDASH variable data type</t>
-  </si>
-  <si>
-    <t>CDASH variable length</t>
-  </si>
-  <si>
-    <t>CDASH variable significant digits</t>
-  </si>
-  <si>
-    <t>SDTM target variable</t>
-  </si>
-  <si>
-    <t>SDTM target mapping</t>
-  </si>
-  <si>
-    <t>SDTM group</t>
   </si>
   <si>
     <t>boolean;
@@ -291,25 +203,10 @@
     <t>Z</t>
   </si>
   <si>
-    <t>SDTM group name foreign key</t>
-  </si>
-  <si>
-    <t>CDASH group name foreign key</t>
-  </si>
-  <si>
     <t>Subset_Short_Name</t>
   </si>
   <si>
-    <t>Codelist foreign key</t>
-  </si>
-  <si>
-    <t>Subset codelist short name foreign key</t>
-  </si>
-  <si>
     <t>Pre-populated value on a CRF</t>
-  </si>
-  <si>
-    <t>Controlled terminology codelist name</t>
   </si>
   <si>
     <t>CT Terms</t>
@@ -340,12 +237,6 @@
 Predecessor</t>
   </si>
   <si>
-    <t>Variable origin type (define-XML v2.1)</t>
-  </si>
-  <si>
-    <t>Variable origin source (define-XML v2.1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subject;
 Investigator;
 Vendor;
@@ -353,9 +244,6 @@
 </t>
   </si>
   <si>
-    <t>SDTM Value Level Metadata group</t>
-  </si>
-  <si>
     <t>SDTM VLM Source which categorizes VLM groups by topic variable</t>
   </si>
   <si>
@@ -371,12 +259,6 @@
     <t>FK_CDASH_Group_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Mandatory variable indicator for variable must be present within the SDTM group </t>
-  </si>
-  <si>
-    <t>Mandatory value indicator for variable needs to have a value (=SDTM Core=Required)</t>
-  </si>
-  <si>
     <t>The earliest SDTMIG version applicable to the BC dataset specialization</t>
   </si>
   <si>
@@ -386,21 +268,6 @@
     <t>The earliest CDASHIG version applicable to the BC dataset specialization</t>
   </si>
   <si>
-    <t>The last  CDASHIG version that is applicable to the BC dataset specialization</t>
-  </si>
-  <si>
-    <t>Biomedical Concept Identifier uri link</t>
-  </si>
-  <si>
-    <t>SDTM variable name uri link</t>
-  </si>
-  <si>
-    <t>CDASH variable name uri link</t>
-  </si>
-  <si>
-    <t>Controlled terminology codelist name uri link</t>
-  </si>
-  <si>
     <t>short_name</t>
   </si>
   <si>
@@ -494,42 +361,9 @@
     <t>significant_digits</t>
   </si>
   <si>
-    <t>controlled_terminology_codelist_name</t>
-  </si>
-  <si>
-    <t>controlled_terminology_codelist_name_uri</t>
-  </si>
-  <si>
     <t>codelist_uri</t>
   </si>
   <si>
-    <t>SDTM Domain</t>
-  </si>
-  <si>
-    <t>Variable significan digits</t>
-  </si>
-  <si>
-    <t>CDASH domain</t>
-  </si>
-  <si>
-    <t>Biomedical Concept  identifier foreign key</t>
-  </si>
-  <si>
-    <t>Biomedical Concept dec idenfifier</t>
-  </si>
-  <si>
-    <t>Biomedical Concept dec identifier uri link</t>
-  </si>
-  <si>
-    <t>Biomedical Concept dec label</t>
-  </si>
-  <si>
-    <t>Biomedical Concept dec data type</t>
-  </si>
-  <si>
-    <t>Biomedical Concept dec example value set</t>
-  </si>
-  <si>
     <t>dec_id</t>
   </si>
   <si>
@@ -566,9 +400,6 @@
     <t>fk_subset_short_name</t>
   </si>
   <si>
-    <t>cdash_domain</t>
-  </si>
-  <si>
     <t>cdash_group_id</t>
   </si>
   <si>
@@ -600,12 +431,6 @@
   </si>
   <si>
     <t>sdtm_target_group</t>
-  </si>
-  <si>
-    <t>parent_codelist</t>
-  </si>
-  <si>
-    <t>Subset codelist parent codelist (C-code)</t>
   </si>
   <si>
     <t>change_history</t>
@@ -673,10 +498,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Codelist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 SDTM Group</t>
   </si>
   <si>
@@ -689,12 +510,6 @@
     <t>nsv_flag</t>
   </si>
   <si>
-    <t>SDTM non-standard variable flag</t>
-  </si>
-  <si>
-    <t>permissible_submission_values</t>
-  </si>
-  <si>
     <t>permissible_display_values</t>
   </si>
   <si>
@@ -702,12 +517,6 @@
   </si>
   <si>
     <t>A set of valid user-friendly display values for a CDASH variable</t>
-  </si>
-  <si>
-    <t>A string pattern that identifies a synonym concept as defined in the code system</t>
-  </si>
-  <si>
-    <t>Identifies the coding system that defines the code which is considered a synonym of a Biomedical Concept. If the code is taken from a code system resource then the URL of the code system should be used</t>
   </si>
   <si>
     <t>EQ; IN</t>
@@ -765,17 +574,140 @@
     <t>SDTM group short name which provides a user friendly and intuitive name for the vlm_group_id</t>
   </si>
   <si>
-    <t>Biomedical Cconcept synonym considered as equivalent to BC short name</t>
-  </si>
-  <si>
     <t>synonym</t>
+  </si>
+  <si>
+    <t>permissible_values</t>
+  </si>
+  <si>
+    <t>NCIt C-code for the Biomedical Concept; placeholder ID will be used if concept is not available in NCIt</t>
+  </si>
+  <si>
+    <t>URI link to NCIt for the Biomedical Concept; blank if  concept is not available in NCIt</t>
+  </si>
+  <si>
+    <t>C-code for the parent concept in the NCIt hiearchy; blank if concept is not available in NCIt</t>
+  </si>
+  <si>
+    <t>NCI Preferred Name for the concept in bc_id; provisional name will be used if concept is not available in NCIt</t>
+  </si>
+  <si>
+    <t>Scale of measurement for the Biomedical Concept result</t>
+  </si>
+  <si>
+    <t>NCIt definition for the Biomedical Concept; provisional defintion if concept is not available in NCIt</t>
+  </si>
+  <si>
+    <t>Identifies the code system for the synonym concept The URL of the code system should be used if it exists</t>
+  </si>
+  <si>
+    <t>Synonym concept for the Biomedical Concept as defined in a code system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCI C-code for the BC Data Element Concept </t>
+  </si>
+  <si>
+    <t>Link to NCIt for the Data Element Concept</t>
+  </si>
+  <si>
+    <t>NCI Preferred Name for the Data Element Concept</t>
+  </si>
+  <si>
+    <t>Data Type for the Data Element Concept</t>
+  </si>
+  <si>
+    <t>Example values for the Data Element Concept</t>
+  </si>
+  <si>
+    <t>Domain for the SDTM specialization group</t>
+  </si>
+  <si>
+    <t>Identifier for SDTM Value Level Metadata group</t>
+  </si>
+  <si>
+    <t>Variable included in the SDTM dataset specialization</t>
+  </si>
+  <si>
+    <t>Hyperlink to the SDTM variable in CDISC Library.  Not populated if nsv_flag = "Y"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag that indicates if the variable is a non-standard variable  </t>
+  </si>
+  <si>
+    <t>List of SDTM submission values used if subset codelist is not applicable</t>
+  </si>
+  <si>
+    <t>C-code for assigned term in NCIt or left blank when CDISC terminology does not apply</t>
+  </si>
+  <si>
+    <t>Submission value for assigned term in NCIt if it exists, or an assigned value which will be the default value</t>
+  </si>
+  <si>
+    <t>SDTM variable role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject in a variable relationship; corresponds to SDTM variable in a dataset specialization </t>
+  </si>
+  <si>
+    <t>Descriptive variable relationship phrase</t>
+  </si>
+  <si>
+    <t>Short variable relationship phrase for programming purposes</t>
+  </si>
+  <si>
+    <t>Variable significant digits</t>
+  </si>
+  <si>
+    <t>Indicator that variable must be present within the SDTM group</t>
+  </si>
+  <si>
+    <t>Indicator that variable must be populated within the SDTM group</t>
+  </si>
+  <si>
+    <t>Variable origin type (define-XML v21)</t>
+  </si>
+  <si>
+    <t>Variable origin source (define-XML v21)</t>
+  </si>
+  <si>
+    <t>C-code for a codelist in NCIt</t>
+  </si>
+  <si>
+    <t>Link to NCIt for the codelist</t>
+  </si>
+  <si>
+    <t>CDISC submission value for the codelist</t>
+  </si>
+  <si>
+    <t>Domain for the CDASH specialization group</t>
+  </si>
+  <si>
+    <t>Identifier for CDASH Value Level group</t>
+  </si>
+  <si>
+    <t>Variable included in the CDASH dataset specialization</t>
+  </si>
+  <si>
+    <t>Hyperlink to the CDASH variable in CDISC Library</t>
+  </si>
+  <si>
+    <t>Rule for mapping from cdash_variable to SDTM target variable.</t>
+  </si>
+  <si>
+    <t>SDTM target vlm_group_id for cdash_variable</t>
+  </si>
+  <si>
+    <t>SDTM target (sdtm_target) variable for cdash_variable</t>
+  </si>
+  <si>
+    <t>Biomedical Concept synonym equivalent to BC short name for the facilitation of API search and extraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,13 +785,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -917,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -925,11 +850,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -991,32 +931,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1083,10 +1005,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1098,6 +1016,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,9 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6575D01-805D-0E4D-89C4-3AB8EBDBFBB8}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1430,217 +1358,214 @@
     <col min="1" max="2" width="13.17578125" style="2" customWidth="1"/>
     <col min="3" max="4" width="15.8203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.17578125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="17.76171875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="17.703125" style="9" customWidth="1"/>
     <col min="8" max="8" width="23.703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.41015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.05859375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.41015625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.3515625" style="3" customWidth="1"/>
     <col min="12" max="12" width="22.29296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.5859375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.52734375" style="2" customWidth="1"/>
     <col min="14" max="15" width="17" style="2" customWidth="1"/>
     <col min="16" max="16" width="17.17578125" style="2" customWidth="1"/>
     <col min="17" max="17" width="17.3515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.9375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.87890625" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="26" customFormat="1" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="46" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+      <c r="A2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="100.35" x14ac:dyDescent="0.5">
+      <c r="A3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="D3" s="23" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="52" customFormat="1" ht="43" x14ac:dyDescent="0.5">
-      <c r="A2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="L2" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="24" customFormat="1" ht="86" x14ac:dyDescent="0.5">
-      <c r="A3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>156</v>
+      <c r="E3" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="24" t="s">
+      <c r="F4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="22" t="s">
@@ -1653,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P4" s="22" t="s">
         <v>8</v>
@@ -1661,142 +1586,134 @@
       <c r="Q4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="25" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="56" t="s">
+      <c r="R4" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="22" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="C5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="27" t="s">
+      <c r="H5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="22" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="27" t="s">
+      <c r="N5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="23" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="14" t="s">
+      <c r="Q6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:18" s="22" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="R7" s="14"/>
+      <c r="B7" s="53"/>
+      <c r="H7" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
@@ -1996,7 +1913,7 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
@@ -2056,7 +1973,7 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
     </row>
-    <row r="28" spans="1:18" ht="30.35" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="28" spans="1:18" ht="30.45" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="29" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
@@ -2108,14 +2025,14 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:18" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:18" s="9" customFormat="1" ht="28.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
@@ -2174,7 +2091,7 @@
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
     </row>
-    <row r="45" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
@@ -2250,7 +2167,7 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
     </row>
-    <row r="51" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -2312,7 +2229,7 @@
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
     </row>
-    <row r="56" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -2483,7 +2400,7 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
     </row>
-    <row r="67" spans="1:18" ht="15.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
     </row>
@@ -2556,35 +2473,34 @@
   <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.17578125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="13.17578125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.17578125" customWidth="1"/>
     <col min="3" max="3" width="18.17578125" customWidth="1"/>
-    <col min="4" max="4" width="17.1171875" customWidth="1"/>
+    <col min="4" max="4" width="17.05859375" customWidth="1"/>
     <col min="5" max="6" width="20.17578125" customWidth="1"/>
     <col min="7" max="8" width="18.17578125" customWidth="1"/>
     <col min="9" max="10" width="25.703125" customWidth="1"/>
-    <col min="11" max="11" width="13.9375" customWidth="1"/>
+    <col min="11" max="11" width="13.87890625" customWidth="1"/>
     <col min="12" max="12" width="13.29296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.29296875" customWidth="1"/>
-    <col min="14" max="14" width="13.9375" customWidth="1"/>
+    <col min="14" max="14" width="13.87890625" customWidth="1"/>
     <col min="15" max="15" width="15.8203125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="16.8203125" customWidth="1"/>
-    <col min="18" max="18" width="16.5859375" customWidth="1"/>
+    <col min="18" max="18" width="16.52734375" customWidth="1"/>
     <col min="19" max="19" width="12.46875" customWidth="1"/>
     <col min="20" max="20" width="18.46875" customWidth="1"/>
     <col min="21" max="21" width="35.8203125" style="11" customWidth="1"/>
     <col min="22" max="22" width="25.703125" style="11" customWidth="1"/>
     <col min="23" max="23" width="18.52734375" customWidth="1"/>
-    <col min="24" max="24" width="15.76171875" customWidth="1"/>
+    <col min="24" max="24" width="15.703125" customWidth="1"/>
     <col min="25" max="25" width="14.05859375" customWidth="1"/>
-    <col min="26" max="27" width="16.76171875" customWidth="1"/>
+    <col min="26" max="27" width="16.703125" customWidth="1"/>
     <col min="28" max="28" width="19.05859375" customWidth="1"/>
     <col min="29" max="29" width="21.05859375" customWidth="1"/>
     <col min="30" max="30" width="16.52734375" customWidth="1"/>
@@ -2593,796 +2509,784 @@
     <col min="33" max="33" width="20.17578125" customWidth="1"/>
     <col min="34" max="35" width="13.05859375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" customWidth="1"/>
-    <col min="37" max="41" width="13.76171875" customWidth="1"/>
+    <col min="37" max="41" width="13.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
-        <v>58</v>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" s="22" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="J2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH2" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="AI1" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AI2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ2" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AK2" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="AN1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" s="22" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A2" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" s="60" t="s">
+      <c r="AL2" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM2" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN2" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO2" s="43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" s="55" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+      <c r="A3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD3" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE3" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI3" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ3" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN3" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="M2" s="57" t="s">
+      <c r="Z4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="W2" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="X2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG2" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH2" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI2" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ2" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK2" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL2" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM2" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN2" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO2" s="49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" s="35" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
-      <c r="A3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="35" t="s">
+      <c r="AJ4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO5" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" s="30" customFormat="1" ht="215" x14ac:dyDescent="0.5">
+      <c r="A7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="V7" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="X7" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="35" t="s">
+      <c r="AD7" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE7" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF7" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="AB3" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC3" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD3" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE3" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF3" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH3" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI3" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ3" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK3" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN3" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO3" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" s="32" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="W4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA4" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO4" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" s="32" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" s="32" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" s="32" customFormat="1" ht="215" x14ac:dyDescent="0.5">
-      <c r="A7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="X7" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD7" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE7" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF7" s="32" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="8" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="33"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -3391,7 +3295,7 @@
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="33"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -3400,230 +3304,230 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="33"/>
+      <c r="A10" s="27"/>
       <c r="U10" s="16"/>
       <c r="V10" s="20"/>
       <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="34"/>
+      <c r="A11" s="28"/>
       <c r="U11" s="16"/>
       <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="34"/>
+      <c r="A12" s="28"/>
       <c r="U12" s="16"/>
       <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="34"/>
+      <c r="A13" s="28"/>
       <c r="U13" s="16"/>
       <c r="V13" s="20"/>
     </row>
     <row r="14" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="34"/>
+      <c r="A14" s="28"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="34"/>
+      <c r="A15" s="28"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="34"/>
+      <c r="A16" s="28"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="34"/>
+      <c r="A17" s="28"/>
       <c r="V17" s="21"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="34"/>
+      <c r="A18" s="28"/>
       <c r="U18" s="17"/>
       <c r="V18" s="21"/>
     </row>
     <row r="19" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="34"/>
+      <c r="A19" s="28"/>
       <c r="U19" s="17"/>
       <c r="V19" s="21"/>
     </row>
     <row r="20" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="34"/>
+      <c r="A20" s="28"/>
       <c r="U20" s="17"/>
       <c r="V20" s="21"/>
     </row>
     <row r="21" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="34"/>
+      <c r="A21" s="28"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
     </row>
     <row r="22" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="34"/>
+      <c r="A22" s="28"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
     </row>
     <row r="23" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="34"/>
+      <c r="A23" s="28"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
     </row>
     <row r="24" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="34"/>
+      <c r="A24" s="28"/>
       <c r="U24" s="16"/>
       <c r="V24" s="20"/>
       <c r="W24" s="16"/>
     </row>
     <row r="25" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="33"/>
+      <c r="A25" s="27"/>
       <c r="T25" s="6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="33"/>
+      <c r="A26" s="27"/>
       <c r="U26" s="16"/>
       <c r="V26" s="20"/>
     </row>
     <row r="27" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="33"/>
+      <c r="A27" s="27"/>
       <c r="U27" s="16"/>
       <c r="V27" s="20"/>
     </row>
     <row r="28" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="33"/>
+      <c r="A28" s="27"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
     </row>
     <row r="29" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="33"/>
+      <c r="A29" s="27"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="33"/>
+      <c r="A30" s="27"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
     <row r="31" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="33"/>
+      <c r="A31" s="27"/>
       <c r="V31" s="21"/>
     </row>
     <row r="32" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="33"/>
+      <c r="A32" s="27"/>
       <c r="V32" s="21"/>
     </row>
     <row r="33" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="33"/>
+      <c r="A33" s="27"/>
       <c r="V33" s="21"/>
     </row>
     <row r="34" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="33"/>
+      <c r="A34" s="27"/>
       <c r="V34" s="21"/>
     </row>
     <row r="35" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="33"/>
+      <c r="A35" s="27"/>
       <c r="U35" s="16"/>
       <c r="V35" s="20"/>
       <c r="W35" s="16"/>
     </row>
     <row r="36" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="33"/>
+      <c r="A36" s="27"/>
       <c r="U36" s="16"/>
       <c r="V36" s="20"/>
     </row>
     <row r="37" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="33"/>
+      <c r="A37" s="27"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20"/>
     </row>
     <row r="38" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="33"/>
+      <c r="A38" s="27"/>
       <c r="V38" s="21"/>
       <c r="W38" s="17"/>
     </row>
     <row r="39" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="33"/>
+      <c r="A39" s="27"/>
       <c r="U39" s="17"/>
       <c r="V39" s="21"/>
     </row>
     <row r="40" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="33"/>
+      <c r="A40" s="27"/>
       <c r="U40" s="17"/>
       <c r="V40" s="21"/>
     </row>
     <row r="41" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="33"/>
+      <c r="A41" s="27"/>
       <c r="U41" s="17"/>
       <c r="V41" s="21"/>
     </row>
     <row r="42" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="33"/>
+      <c r="A42" s="27"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
     </row>
     <row r="43" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="33"/>
+      <c r="A43" s="27"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
     </row>
     <row r="44" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="33"/>
+      <c r="A44" s="27"/>
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
     </row>
     <row r="45" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="33"/>
+      <c r="A45" s="27"/>
       <c r="V45" s="20"/>
       <c r="W45" s="16"/>
     </row>
     <row r="46" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="33"/>
+      <c r="A46" s="27"/>
       <c r="U46" s="16"/>
       <c r="V46" s="20"/>
     </row>
     <row r="47" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="33"/>
+      <c r="A47" s="27"/>
       <c r="U47" s="16"/>
       <c r="V47" s="20"/>
     </row>
     <row r="48" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="33"/>
+      <c r="A48" s="27"/>
       <c r="U48" s="16"/>
       <c r="V48" s="20"/>
     </row>
     <row r="49" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="33"/>
+      <c r="A49" s="27"/>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="33"/>
+      <c r="A50" s="27"/>
       <c r="V50" s="21"/>
       <c r="W50" s="17"/>
     </row>
     <row r="51" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="33"/>
+      <c r="A51" s="27"/>
       <c r="U51" s="17"/>
       <c r="V51" s="21"/>
     </row>
     <row r="52" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="33"/>
+      <c r="A52" s="27"/>
       <c r="P52" s="6"/>
       <c r="U52" s="17"/>
       <c r="V52" s="21"/>
     </row>
     <row r="53" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="33"/>
+      <c r="A53" s="27"/>
       <c r="U53" s="17"/>
       <c r="V53" s="21"/>
     </row>
     <row r="54" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="33"/>
+      <c r="A54" s="27"/>
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
     </row>
@@ -3641,611 +3545,600 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D07318-37D9-4584-BDF7-2B2AF3921938}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="N27" sqref="N27"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.1171875" customWidth="1"/>
-    <col min="2" max="3" width="16.5859375" customWidth="1"/>
-    <col min="4" max="4" width="18.9375" customWidth="1"/>
+    <col min="1" max="1" width="13.05859375" customWidth="1"/>
+    <col min="2" max="3" width="16.52734375" customWidth="1"/>
+    <col min="4" max="4" width="18.87890625" customWidth="1"/>
     <col min="5" max="5" width="20.05859375" customWidth="1"/>
     <col min="6" max="6" width="16.05859375" customWidth="1"/>
     <col min="7" max="7" width="15.3515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.9375" customWidth="1"/>
-    <col min="10" max="10" width="35.1171875" customWidth="1"/>
-    <col min="11" max="12" width="24.41015625" customWidth="1"/>
+    <col min="8" max="9" width="19.87890625" customWidth="1"/>
+    <col min="10" max="10" width="35.05859375" customWidth="1"/>
+    <col min="11" max="12" width="24.3515625" customWidth="1"/>
     <col min="13" max="13" width="26.46875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="24.41015625" customWidth="1"/>
+    <col min="14" max="15" width="24.3515625" customWidth="1"/>
     <col min="16" max="16" width="15.52734375" customWidth="1"/>
     <col min="17" max="17" width="13.8203125" customWidth="1"/>
     <col min="18" max="18" width="17.3515625" customWidth="1"/>
-    <col min="19" max="19" width="13.1171875" style="11" customWidth="1"/>
-    <col min="20" max="20" width="19.76171875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="13.05859375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="19.703125" style="11" customWidth="1"/>
     <col min="21" max="21" width="13.64453125" customWidth="1"/>
-    <col min="22" max="23" width="13.703125" customWidth="1"/>
-    <col min="24" max="24" width="13.76171875" customWidth="1"/>
-    <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="29" width="13.76171875" customWidth="1"/>
+    <col min="22" max="23" width="13.05859375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="13.703125" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="27" max="29" width="13.703125" customWidth="1"/>
     <col min="30" max="30" width="16.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="43" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
-        <v>25</v>
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A1" s="35" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="X2" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Y2" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AA1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="39" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="Z2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="57" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="43" t="s">
+      <c r="D3" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="S2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="T2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="U2" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="V2" s="38" t="s">
+      <c r="E3" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="W2" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="X2" s="40" t="s">
+      <c r="I3" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="U3" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="W3" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="X3" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="Y2" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z2" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA2" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB2" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC2" s="40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="39" customFormat="1" ht="56.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Z3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="33" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="J7" s="36"/>
+      <c r="P7" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB3" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="U4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="W4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="W6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="39" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="J7" s="42"/>
-      <c r="P7" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
     </row>
     <row r="8" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="F8" s="16"/>
-      <c r="G8" s="35"/>
+      <c r="G8" s="29"/>
       <c r="J8" s="16"/>
       <c r="P8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -4255,13 +4148,15 @@
     </row>
     <row r="9" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="F9" s="16"/>
-      <c r="G9" s="35"/>
+      <c r="G9" s="29"/>
       <c r="J9" s="16"/>
       <c r="P9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
@@ -4269,12 +4164,14 @@
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
     </row>
-    <row r="10" spans="1:30" s="15" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:30" s="15" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="J10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -4288,6 +4185,8 @@
       <c r="J11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
@@ -4295,7 +4194,7 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="1:30" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:30" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="J12" s="16"/>
@@ -4330,7 +4229,7 @@
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
     </row>
-    <row r="17" spans="6:29" s="15" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="6:29" s="15" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="J17" s="17"/>
@@ -4365,12 +4264,14 @@
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="6:29" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="6:29" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="J22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
@@ -4384,6 +4285,8 @@
       <c r="J23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
@@ -4412,12 +4315,14 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" spans="6:29" s="15" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="6:29" s="15" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="J27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -4431,6 +4336,8 @@
       <c r="J28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
@@ -4438,14 +4345,14 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="6:29" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="6:29" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="J29" s="16"/>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="6:29" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="6:29" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="J30" s="16"/>
@@ -4458,6 +4365,8 @@
       <c r="J31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
@@ -4471,6 +4380,8 @@
       <c r="J32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
@@ -4484,6 +4395,8 @@
       <c r="J33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
@@ -4497,6 +4410,8 @@
       <c r="J34" s="16"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
@@ -4504,12 +4419,14 @@
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
     </row>
-    <row r="35" spans="6:29" s="15" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="6:29" s="15" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="J35" s="17"/>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
@@ -4523,6 +4440,8 @@
       <c r="J36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
@@ -4536,6 +4455,8 @@
       <c r="J37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
@@ -4543,12 +4464,14 @@
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="6:29" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="6:29" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="J38" s="16"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
       <c r="X38" s="15"/>
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
@@ -4562,6 +4485,8 @@
       <c r="J39" s="16"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
@@ -4570,6 +4495,8 @@
       <c r="AC39" s="15"/>
     </row>
     <row r="40" spans="6:29" x14ac:dyDescent="0.5">
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
@@ -4578,6 +4505,8 @@
       <c r="AC40" s="15"/>
     </row>
     <row r="41" spans="6:29" x14ac:dyDescent="0.5">
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
       <c r="X41" s="15"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
@@ -4586,6 +4515,8 @@
       <c r="AC41" s="15"/>
     </row>
     <row r="42" spans="6:29" x14ac:dyDescent="0.5">
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
@@ -4594,6 +4525,8 @@
       <c r="AC42" s="15"/>
     </row>
     <row r="43" spans="6:29" x14ac:dyDescent="0.5">
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
       <c r="X43" s="15"/>
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
@@ -4602,6 +4535,8 @@
       <c r="AC43" s="15"/>
     </row>
     <row r="44" spans="6:29" x14ac:dyDescent="0.5">
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
@@ -4610,6 +4545,8 @@
       <c r="AC44" s="15"/>
     </row>
     <row r="45" spans="6:29" x14ac:dyDescent="0.5">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
@@ -4618,6 +4555,8 @@
       <c r="AC45" s="6"/>
     </row>
     <row r="46" spans="6:29" x14ac:dyDescent="0.5">
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
@@ -4626,6 +4565,8 @@
       <c r="AC46" s="6"/>
     </row>
     <row r="47" spans="6:29" x14ac:dyDescent="0.5">
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
@@ -4634,6 +4575,8 @@
       <c r="AC47" s="6"/>
     </row>
     <row r="48" spans="6:29" x14ac:dyDescent="0.5">
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
@@ -4641,7 +4584,9 @@
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="24:29" x14ac:dyDescent="0.5">
+    <row r="49" spans="22:29" x14ac:dyDescent="0.5">
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
@@ -4649,7 +4594,9 @@
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="24:29" x14ac:dyDescent="0.5">
+    <row r="50" spans="22:29" x14ac:dyDescent="0.5">
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
       <c r="X50" s="15"/>
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
@@ -4657,7 +4604,9 @@
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
     </row>
-    <row r="51" spans="24:29" x14ac:dyDescent="0.5">
+    <row r="51" spans="22:29" x14ac:dyDescent="0.5">
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
@@ -4665,7 +4614,9 @@
       <c r="AB51" s="15"/>
       <c r="AC51" s="15"/>
     </row>
-    <row r="52" spans="24:29" x14ac:dyDescent="0.5">
+    <row r="52" spans="22:29" x14ac:dyDescent="0.5">
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
       <c r="X52" s="15"/>
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
@@ -4673,7 +4624,9 @@
       <c r="AB52" s="15"/>
       <c r="AC52" s="15"/>
     </row>
-    <row r="53" spans="24:29" x14ac:dyDescent="0.5">
+    <row r="53" spans="22:29" x14ac:dyDescent="0.5">
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
@@ -4681,7 +4634,9 @@
       <c r="AB53" s="15"/>
       <c r="AC53" s="15"/>
     </row>
-    <row r="54" spans="24:29" x14ac:dyDescent="0.5">
+    <row r="54" spans="22:29" x14ac:dyDescent="0.5">
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
       <c r="X54" s="15"/>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
@@ -4706,72 +4661,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.234375" customWidth="1"/>
-    <col min="2" max="2" width="27.9375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.29296875" customWidth="1"/>
+    <col min="2" max="2" width="27.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.05859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -4779,24 +4734,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
@@ -4804,21 +4759,21 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
@@ -4826,29 +4781,29 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -4859,10 +4814,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
@@ -4870,18 +4825,18 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -4892,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -4917,147 +4872,147 @@
     <col min="1" max="1" width="12.17578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.8203125" customWidth="1"/>
     <col min="3" max="3" width="14.17578125" customWidth="1"/>
-    <col min="4" max="4" width="27.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5309,13 +5264,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41345B41-F9FA-42E9-9D96-6318E09ACCF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{914015FE-AEFC-40B4-9F7F-DA575E593C8A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43EE0C5-BD78-433B-8DE2-2355875A3614}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{934B9C5C-492E-4847-8B6C-70ABA3C0C6BB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F746F7C8-B27A-4830-BB80-7C6BB555E569}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{490A8145-0457-4251-A609-6BAF8EE09F01}"/>
 </file>
--- a/BC Data Model Outline.xlsx
+++ b/BC Data Model Outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\CDISC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB5F9A5-B9F4-42AA-A825-2150AEBBFEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A558C6E-4E5B-455F-A2A0-9569685656F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="BC Data Model" sheetId="8" r:id="rId1"/>
@@ -1349,30 +1349,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6575D01-805D-0E4D-89C4-3AB8EBDBFBB8}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.17578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="15.8203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.17578125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="17.703125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.3515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.05859375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.3515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.29296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.52734375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="15.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="2" customWidth="1"/>
     <col min="14" max="15" width="17" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.17578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.3515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.87890625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>156</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="46" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="100.35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="22" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" s="22" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>6</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="22" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="14"/>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1746,7 +1746,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="2"/>
@@ -1760,7 +1760,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="14"/>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="2"/>
@@ -1774,7 +1774,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
@@ -1788,7 +1788,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2"/>
@@ -1802,7 +1802,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="2"/>
@@ -1816,7 +1816,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="H16" s="9"/>
@@ -1824,7 +1824,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="H17" s="9"/>
@@ -1832,7 +1832,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="I18" s="14"/>
@@ -1844,7 +1844,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="2"/>
@@ -1861,7 +1861,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="2"/>
@@ -1878,7 +1878,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2"/>
@@ -1895,7 +1895,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="2"/>
@@ -1913,11 +1913,11 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="2"/>
@@ -1931,7 +1931,7 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1945,7 +1945,7 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1959,7 +1959,7 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1973,69 +1973,69 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
     </row>
-    <row r="28" spans="1:18" ht="30.45" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="29" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:18" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:18" s="9" customFormat="1" ht="28.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:18" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2049,7 +2049,7 @@
       <c r="Q41" s="9"/>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2063,7 +2063,7 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2077,7 +2077,7 @@
       <c r="Q43" s="9"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2091,10 +2091,10 @@
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
     </row>
-    <row r="45" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2108,7 +2108,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2122,7 +2122,7 @@
       <c r="Q47" s="9"/>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2136,7 +2136,7 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2150,7 +2150,7 @@
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
     </row>
-    <row r="50" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2167,12 +2167,12 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
     </row>
-    <row r="51" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2187,7 +2187,7 @@
       <c r="Q52" s="9"/>
       <c r="R52" s="14"/>
     </row>
-    <row r="53" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2201,7 +2201,7 @@
       <c r="Q53" s="9"/>
       <c r="R53" s="14"/>
     </row>
-    <row r="54" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2215,7 +2215,7 @@
       <c r="Q54" s="9"/>
       <c r="R54" s="14"/>
     </row>
-    <row r="55" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2229,12 +2229,12 @@
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
     </row>
-    <row r="56" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2249,7 +2249,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="14"/>
     </row>
-    <row r="58" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2263,7 +2263,7 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="14"/>
     </row>
-    <row r="59" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2277,7 +2277,7 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2291,7 +2291,7 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
     </row>
-    <row r="61" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2308,7 +2308,7 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
     </row>
-    <row r="62" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2328,7 +2328,7 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
     </row>
-    <row r="63" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2346,7 +2346,7 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="14"/>
     </row>
-    <row r="64" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2364,7 +2364,7 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="14"/>
     </row>
-    <row r="65" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2382,7 +2382,7 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="14"/>
     </row>
-    <row r="66" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2400,11 +2400,11 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
     </row>
-    <row r="67" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2419,7 +2419,7 @@
       <c r="Q68" s="9"/>
       <c r="R68" s="14"/>
     </row>
-    <row r="69" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2433,7 +2433,7 @@
       <c r="Q69" s="9"/>
       <c r="R69" s="14"/>
     </row>
-    <row r="70" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2447,7 +2447,7 @@
       <c r="Q70" s="9"/>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2476,43 +2476,43 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.17578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="20.17578125" customWidth="1"/>
-    <col min="3" max="3" width="18.17578125" customWidth="1"/>
-    <col min="4" max="4" width="17.05859375" customWidth="1"/>
-    <col min="5" max="6" width="20.17578125" customWidth="1"/>
-    <col min="7" max="8" width="18.17578125" customWidth="1"/>
-    <col min="9" max="10" width="25.703125" customWidth="1"/>
-    <col min="11" max="11" width="13.87890625" customWidth="1"/>
-    <col min="12" max="12" width="13.29296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.29296875" customWidth="1"/>
-    <col min="14" max="14" width="13.87890625" customWidth="1"/>
-    <col min="15" max="15" width="15.8203125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.8203125" customWidth="1"/>
-    <col min="18" max="18" width="16.52734375" customWidth="1"/>
-    <col min="19" max="19" width="12.46875" customWidth="1"/>
-    <col min="20" max="20" width="18.46875" customWidth="1"/>
-    <col min="21" max="21" width="35.8203125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="25.703125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="18.52734375" customWidth="1"/>
-    <col min="24" max="24" width="15.703125" customWidth="1"/>
-    <col min="25" max="25" width="14.05859375" customWidth="1"/>
-    <col min="26" max="27" width="16.703125" customWidth="1"/>
-    <col min="28" max="28" width="19.05859375" customWidth="1"/>
-    <col min="29" max="29" width="21.05859375" customWidth="1"/>
-    <col min="30" max="30" width="16.52734375" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="35.85546875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" style="11" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" customWidth="1"/>
+    <col min="28" max="28" width="19" customWidth="1"/>
+    <col min="29" max="29" width="21" customWidth="1"/>
+    <col min="30" max="30" width="16.5703125" customWidth="1"/>
     <col min="31" max="31" width="15" customWidth="1"/>
-    <col min="32" max="32" width="26.52734375" customWidth="1"/>
-    <col min="33" max="33" width="20.17578125" customWidth="1"/>
-    <col min="34" max="35" width="13.05859375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.5703125" customWidth="1"/>
+    <col min="33" max="33" width="20.140625" customWidth="1"/>
+    <col min="34" max="35" width="13" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" customWidth="1"/>
-    <col min="37" max="41" width="13.703125" customWidth="1"/>
+    <col min="37" max="41" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="22" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="55" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:41" s="55" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:41" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="30" customFormat="1" ht="215" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:41" s="30" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="19"/>
       <c r="E8" s="19"/>
@@ -3294,7 +3294,7 @@
       <c r="J8" s="19"/>
       <c r="V8" s="21"/>
     </row>
-    <row r="9" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="19"/>
       <c r="E9" s="19"/>
@@ -3303,84 +3303,84 @@
       <c r="J9" s="19"/>
       <c r="V9" s="21"/>
     </row>
-    <row r="10" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="U10" s="16"/>
       <c r="V10" s="20"/>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="U11" s="16"/>
       <c r="V11" s="20"/>
     </row>
-    <row r="12" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="U12" s="16"/>
       <c r="V12" s="20"/>
     </row>
-    <row r="13" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="U13" s="16"/>
       <c r="V13" s="20"/>
     </row>
-    <row r="14" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
     </row>
-    <row r="15" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
-    <row r="16" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="V17" s="21"/>
       <c r="W17" s="17"/>
     </row>
-    <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="U18" s="17"/>
       <c r="V18" s="21"/>
     </row>
-    <row r="19" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="U19" s="17"/>
       <c r="V19" s="21"/>
     </row>
-    <row r="20" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="U20" s="17"/>
       <c r="V20" s="21"/>
     </row>
-    <row r="21" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
     </row>
-    <row r="22" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
     </row>
-    <row r="23" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
     </row>
-    <row r="24" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="U24" s="16"/>
       <c r="V24" s="20"/>
       <c r="W24" s="16"/>
     </row>
-    <row r="25" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="T25" s="6" t="s">
         <v>55</v>
@@ -3388,150 +3388,150 @@
       <c r="U25" s="16"/>
       <c r="V25" s="20"/>
     </row>
-    <row r="26" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="U26" s="16"/>
       <c r="V26" s="20"/>
     </row>
-    <row r="27" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="U27" s="16"/>
       <c r="V27" s="20"/>
     </row>
-    <row r="28" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
     </row>
-    <row r="29" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
-    <row r="30" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
-    <row r="31" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="V31" s="21"/>
     </row>
-    <row r="32" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="V32" s="21"/>
     </row>
-    <row r="33" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="V33" s="21"/>
     </row>
-    <row r="34" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="V34" s="21"/>
     </row>
-    <row r="35" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="U35" s="16"/>
       <c r="V35" s="20"/>
       <c r="W35" s="16"/>
     </row>
-    <row r="36" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="U36" s="16"/>
       <c r="V36" s="20"/>
     </row>
-    <row r="37" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20"/>
     </row>
-    <row r="38" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="V38" s="21"/>
       <c r="W38" s="17"/>
     </row>
-    <row r="39" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="U39" s="17"/>
       <c r="V39" s="21"/>
     </row>
-    <row r="40" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="U40" s="17"/>
       <c r="V40" s="21"/>
     </row>
-    <row r="41" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="U41" s="17"/>
       <c r="V41" s="21"/>
     </row>
-    <row r="42" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
     </row>
-    <row r="43" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
     </row>
-    <row r="44" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="V45" s="20"/>
       <c r="W45" s="16"/>
     </row>
-    <row r="46" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="U46" s="16"/>
       <c r="V46" s="20"/>
     </row>
-    <row r="47" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="U47" s="16"/>
       <c r="V47" s="20"/>
     </row>
-    <row r="48" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="U48" s="16"/>
       <c r="V48" s="20"/>
     </row>
-    <row r="49" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
     </row>
-    <row r="50" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="V50" s="21"/>
       <c r="W50" s="17"/>
     </row>
-    <row r="51" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="U51" s="17"/>
       <c r="V51" s="21"/>
     </row>
-    <row r="52" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="P52" s="6"/>
       <c r="U52" s="17"/>
       <c r="V52" s="21"/>
     </row>
-    <row r="53" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="U53" s="17"/>
       <c r="V53" s="21"/>
     </row>
-    <row r="54" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P55" s="15"/>
     </row>
   </sheetData>
@@ -3549,34 +3549,34 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.05859375" customWidth="1"/>
-    <col min="2" max="3" width="16.52734375" customWidth="1"/>
-    <col min="4" max="4" width="18.87890625" customWidth="1"/>
-    <col min="5" max="5" width="20.05859375" customWidth="1"/>
-    <col min="6" max="6" width="16.05859375" customWidth="1"/>
-    <col min="7" max="7" width="15.3515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.87890625" customWidth="1"/>
-    <col min="10" max="10" width="35.05859375" customWidth="1"/>
-    <col min="11" max="12" width="24.3515625" customWidth="1"/>
-    <col min="13" max="13" width="26.46875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="24.3515625" customWidth="1"/>
-    <col min="16" max="16" width="15.52734375" customWidth="1"/>
-    <col min="17" max="17" width="13.8203125" customWidth="1"/>
-    <col min="18" max="18" width="17.3515625" customWidth="1"/>
-    <col min="19" max="19" width="13.05859375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="19.703125" style="11" customWidth="1"/>
-    <col min="21" max="21" width="13.64453125" customWidth="1"/>
-    <col min="22" max="23" width="13.05859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
+    <col min="11" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="24.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13" style="11" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" style="11" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="13.703125" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
-    <col min="27" max="29" width="13.703125" customWidth="1"/>
-    <col min="30" max="30" width="16.87890625" customWidth="1"/>
+    <col min="27" max="29" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>19</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:30" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="57" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:30" s="57" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="33" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:30" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="AB7" s="26"/>
       <c r="AC7" s="26"/>
     </row>
-    <row r="8" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F8" s="16"/>
       <c r="G8" s="29"/>
       <c r="J8" s="16"/>
@@ -4146,7 +4146,7 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
     </row>
-    <row r="9" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F9" s="16"/>
       <c r="G9" s="29"/>
       <c r="J9" s="16"/>
@@ -4164,7 +4164,7 @@
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
     </row>
-    <row r="10" spans="1:30" s="15" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:30" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="J10" s="17"/>
@@ -4179,7 +4179,7 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="J11" s="17"/>
@@ -4194,77 +4194,77 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="1:30" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:30" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="J12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
     </row>
-    <row r="13" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="J13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="J14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
     </row>
-    <row r="15" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="J15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
     </row>
-    <row r="16" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="J16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
     </row>
-    <row r="17" spans="6:29" s="15" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="6:29" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="J17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
     </row>
-    <row r="18" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="J18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="J19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
     </row>
-    <row r="20" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="J20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="J21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="6:29" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="6:29" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="J22" s="16"/>
@@ -4279,7 +4279,7 @@
       <c r="AB22" s="15"/>
       <c r="AC22" s="15"/>
     </row>
-    <row r="23" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="J23" s="16"/>
@@ -4294,28 +4294,28 @@
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
     </row>
-    <row r="24" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="J24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="J25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="J26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" spans="6:29" s="15" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="6:29" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="J27" s="17"/>
@@ -4330,7 +4330,7 @@
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
-    <row r="28" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="J28" s="17"/>
@@ -4345,21 +4345,21 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="6:29" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="6:29" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="J29" s="16"/>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="6:29" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="6:29" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="J30" s="16"/>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
     </row>
-    <row r="31" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="J31" s="16"/>
@@ -4374,7 +4374,7 @@
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
     </row>
-    <row r="32" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="J32" s="16"/>
@@ -4389,7 +4389,7 @@
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
     </row>
-    <row r="33" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="J33" s="16"/>
@@ -4404,7 +4404,7 @@
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
     </row>
-    <row r="34" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="J34" s="16"/>
@@ -4419,7 +4419,7 @@
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
     </row>
-    <row r="35" spans="6:29" s="15" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="6:29" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="J35" s="17"/>
@@ -4434,7 +4434,7 @@
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
     </row>
-    <row r="36" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="J36" s="17"/>
@@ -4449,7 +4449,7 @@
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="6:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="J37" s="17"/>
@@ -4464,7 +4464,7 @@
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="6:29" s="6" customFormat="1" ht="43.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="6:29" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="J38" s="16"/>
@@ -4479,7 +4479,7 @@
       <c r="AB38" s="15"/>
       <c r="AC38" s="15"/>
     </row>
-    <row r="39" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="6:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="J39" s="16"/>
@@ -4494,7 +4494,7 @@
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
     </row>
-    <row r="40" spans="6:29" x14ac:dyDescent="0.5">
+    <row r="40" spans="6:29" x14ac:dyDescent="0.25">
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
@@ -4504,7 +4504,7 @@
       <c r="AB40" s="15"/>
       <c r="AC40" s="15"/>
     </row>
-    <row r="41" spans="6:29" x14ac:dyDescent="0.5">
+    <row r="41" spans="6:29" x14ac:dyDescent="0.25">
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
       <c r="X41" s="15"/>
@@ -4514,7 +4514,7 @@
       <c r="AB41" s="15"/>
       <c r="AC41" s="15"/>
     </row>
-    <row r="42" spans="6:29" x14ac:dyDescent="0.5">
+    <row r="42" spans="6:29" x14ac:dyDescent="0.25">
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
@@ -4524,7 +4524,7 @@
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
     </row>
-    <row r="43" spans="6:29" x14ac:dyDescent="0.5">
+    <row r="43" spans="6:29" x14ac:dyDescent="0.25">
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
       <c r="X43" s="15"/>
@@ -4534,7 +4534,7 @@
       <c r="AB43" s="15"/>
       <c r="AC43" s="15"/>
     </row>
-    <row r="44" spans="6:29" x14ac:dyDescent="0.5">
+    <row r="44" spans="6:29" x14ac:dyDescent="0.25">
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
       <c r="X44" s="15"/>
@@ -4544,7 +4544,7 @@
       <c r="AB44" s="15"/>
       <c r="AC44" s="15"/>
     </row>
-    <row r="45" spans="6:29" x14ac:dyDescent="0.5">
+    <row r="45" spans="6:29" x14ac:dyDescent="0.25">
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
@@ -4554,7 +4554,7 @@
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="6:29" x14ac:dyDescent="0.5">
+    <row r="46" spans="6:29" x14ac:dyDescent="0.25">
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
@@ -4564,7 +4564,7 @@
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="6:29" x14ac:dyDescent="0.5">
+    <row r="47" spans="6:29" x14ac:dyDescent="0.25">
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
@@ -4574,7 +4574,7 @@
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
     </row>
-    <row r="48" spans="6:29" x14ac:dyDescent="0.5">
+    <row r="48" spans="6:29" x14ac:dyDescent="0.25">
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
@@ -4584,7 +4584,7 @@
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="22:29" x14ac:dyDescent="0.5">
+    <row r="49" spans="22:29" x14ac:dyDescent="0.25">
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
@@ -4594,7 +4594,7 @@
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="22:29" x14ac:dyDescent="0.5">
+    <row r="50" spans="22:29" x14ac:dyDescent="0.25">
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
       <c r="X50" s="15"/>
@@ -4604,7 +4604,7 @@
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
     </row>
-    <row r="51" spans="22:29" x14ac:dyDescent="0.5">
+    <row r="51" spans="22:29" x14ac:dyDescent="0.25">
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
@@ -4614,7 +4614,7 @@
       <c r="AB51" s="15"/>
       <c r="AC51" s="15"/>
     </row>
-    <row r="52" spans="22:29" x14ac:dyDescent="0.5">
+    <row r="52" spans="22:29" x14ac:dyDescent="0.25">
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
@@ -4624,7 +4624,7 @@
       <c r="AB52" s="15"/>
       <c r="AC52" s="15"/>
     </row>
-    <row r="53" spans="22:29" x14ac:dyDescent="0.5">
+    <row r="53" spans="22:29" x14ac:dyDescent="0.25">
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
       <c r="X53" s="15"/>
@@ -4634,7 +4634,7 @@
       <c r="AB53" s="15"/>
       <c r="AC53" s="15"/>
     </row>
-    <row r="54" spans="22:29" x14ac:dyDescent="0.5">
+    <row r="54" spans="22:29" x14ac:dyDescent="0.25">
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
@@ -4659,14 +4659,14 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.29296875" customWidth="1"/>
-    <col min="2" max="2" width="27.87890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.05859375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4867,15 +4867,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.17578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.8203125" customWidth="1"/>
-    <col min="3" max="3" width="14.17578125" customWidth="1"/>
-    <col min="4" max="4" width="27.05859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -5247,6 +5247,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5255,22 +5263,39 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{914015FE-AEFC-40B4-9F7F-DA575E593C8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{914015FE-AEFC-40B4-9F7F-DA575E593C8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{934B9C5C-492E-4847-8B6C-70ABA3C0C6BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{490A8145-0457-4251-A609-6BAF8EE09F01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{490A8145-0457-4251-A609-6BAF8EE09F01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{934B9C5C-492E-4847-8B6C-70ABA3C0C6BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>